--- a/Map-R5-data-types-for-R4.xlsx
+++ b/Map-R5-data-types-for-R4.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1494" uniqueCount="97">
   <si>
     <t>Property</t>
   </si>
@@ -60,15 +60,12 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:14.1710456-06:00</t>
+    <t>2026-02-21T13:36:49.3145371-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>FHIR Infrastructure</t>
-  </si>
-  <si>
     <t>Contact</t>
   </si>
   <si>
@@ -111,13 +108,13 @@
     <t>Relationship</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/fhir-types</t>
+    <t>http://hl7.org/fhir/fhir-types|5.0.0</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>http://hl7.org/fhir/data-types</t>
+    <t>http://hl7.org/fhir/data-types|4.0.1</t>
   </si>
   <si>
     <t>Address</t>
@@ -141,6 +138,15 @@
     <t>CodeableConcept</t>
   </si>
   <si>
+    <t>CodeableReference</t>
+  </si>
+  <si>
+    <t>source-is-narrower-than-target</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
     <t>Coding</t>
   </si>
   <si>
@@ -216,9 +222,6 @@
     <t>Ratio</t>
   </si>
   <si>
-    <t>Reference</t>
-  </si>
-  <si>
     <t>RelatedArtifact</t>
   </si>
   <si>
@@ -249,6 +252,27 @@
     <t>code</t>
   </si>
   <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>markdown</t>
+  </si>
+  <si>
+    <t>oid</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>uri</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>uuid</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -258,40 +282,22 @@
     <t>decimal</t>
   </si>
   <si>
-    <t>id</t>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>positiveInt</t>
+  </si>
+  <si>
+    <t>unsignedInt</t>
   </si>
   <si>
     <t>instant</t>
   </si>
   <si>
-    <t>integer</t>
-  </si>
-  <si>
-    <t>markdown</t>
-  </si>
-  <si>
-    <t>oid</t>
-  </si>
-  <si>
-    <t>positiveInt</t>
-  </si>
-  <si>
-    <t>string</t>
+    <t>integer64</t>
   </si>
   <si>
     <t>time</t>
-  </si>
-  <si>
-    <t>unsignedInt</t>
-  </si>
-  <si>
-    <t>uri</t>
-  </si>
-  <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>uuid</t>
   </si>
   <si>
     <t>xhtml</t>
@@ -509,60 +515,58 @@
       <c r="A9" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="B9" t="s" s="2">
-        <v>17</v>
-      </c>
+      <c r="B9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>18</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>20</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s" s="2">
         <v>22</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>26</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s" s="2">
         <v>28</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -572,7 +576,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:E293"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -580,166 +584,166 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
         <v>30</v>
       </c>
-      <c r="C1" t="s" s="1">
-        <v>31</v>
-      </c>
       <c r="D1" t="s" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="C2" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s" s="2">
         <v>33</v>
       </c>
-      <c r="C2" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="D2" t="s" s="2">
-        <v>34</v>
-      </c>
       <c r="E2" t="s" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="D4" t="s" s="2">
-        <v>37</v>
-      </c>
       <c r="E4" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E8" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>43</v>
@@ -756,7 +760,7 @@
         <v>44</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>44</v>
@@ -773,7 +777,7 @@
         <v>45</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>45</v>
@@ -790,7 +794,7 @@
         <v>46</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>46</v>
@@ -807,7 +811,7 @@
         <v>47</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s" s="2">
         <v>47</v>
@@ -824,7 +828,7 @@
         <v>48</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>48</v>
@@ -841,7 +845,7 @@
         <v>49</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>49</v>
@@ -858,7 +862,7 @@
         <v>50</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D17" t="s" s="2">
         <v>50</v>
@@ -875,7 +879,7 @@
         <v>51</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>51</v>
@@ -892,7 +896,7 @@
         <v>52</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>52</v>
@@ -909,7 +913,7 @@
         <v>53</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>53</v>
@@ -926,7 +930,7 @@
         <v>54</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>54</v>
@@ -943,7 +947,7 @@
         <v>55</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D22" t="s" s="2">
         <v>55</v>
@@ -960,7 +964,7 @@
         <v>56</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>56</v>
@@ -977,7 +981,7 @@
         <v>57</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D24" t="s" s="2">
         <v>57</v>
@@ -994,7 +998,7 @@
         <v>58</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>58</v>
@@ -1011,7 +1015,7 @@
         <v>59</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D26" t="s" s="2">
         <v>59</v>
@@ -1028,7 +1032,7 @@
         <v>60</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>60</v>
@@ -1045,7 +1049,7 @@
         <v>61</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>61</v>
@@ -1062,7 +1066,7 @@
         <v>62</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D29" t="s" s="2">
         <v>62</v>
@@ -1079,7 +1083,7 @@
         <v>63</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>63</v>
@@ -1096,7 +1100,7 @@
         <v>64</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D31" t="s" s="2">
         <v>64</v>
@@ -1113,7 +1117,7 @@
         <v>65</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D32" t="s" s="2">
         <v>65</v>
@@ -1130,7 +1134,7 @@
         <v>66</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>66</v>
@@ -1147,7 +1151,7 @@
         <v>67</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D34" t="s" s="2">
         <v>67</v>
@@ -1164,7 +1168,7 @@
         <v>68</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>68</v>
@@ -1175,427 +1179,4388 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D36" t="s" s="2">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="E36" t="s" s="2">
-        <v>69</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D37" t="s" s="2">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E37" t="s" s="2">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D38" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E38" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D39" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E39" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D40" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E40" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D41" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E41" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D42" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E42" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D43" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E43" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D44" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E44" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D45" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E45" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D46" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E46" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D47" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E47" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D48" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E48" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D49" t="s" s="2">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E49" t="s" s="2">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D50" t="s" s="2">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E50" t="s" s="2">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D51" t="s" s="2">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E51" t="s" s="2">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D52" t="s" s="2">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E52" t="s" s="2">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D53" t="s" s="2">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E53" t="s" s="2">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D54" t="s" s="2">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E54" t="s" s="2">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D55" t="s" s="2">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E55" t="s" s="2">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D56" t="s" s="2">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E56" t="s" s="2">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D57" t="s" s="2">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E57" t="s" s="2">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D58" t="s" s="2">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E58" t="s" s="2">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D59" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E59" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="C60" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D60" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="E60" t="s" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="C61" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D61" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="E61" t="s" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="C62" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D62" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="E62" t="s" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="C63" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D63" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="E63" t="s" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="C64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D64" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="E64" t="s" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="C65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E65" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="C66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E66" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="C67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="E67" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="C68" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="E68" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="C69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E69" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="C70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E70" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="C71" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E71" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="C72" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E72" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="C73" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E73" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="C74" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E74" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="C75" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E75" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="C76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E76" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="C77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E77" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="C78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E78" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="C79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E79" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="C80" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E80" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="C81" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E81" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="C82" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="C83" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E83" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="C84" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E84" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="C85" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E85" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="C86" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E86" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="C87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E87" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="C88" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E88" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="C89" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E89" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="C90" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D90" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E90" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="C91" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D91" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E91" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="C92" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E92" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="C93" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D93" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="E93" t="s" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="B94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="C94" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D94" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="E94" t="s" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="C95" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D95" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="E95" t="s" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="C96" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D96" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="E96" t="s" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="C97" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D97" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="E97" t="s" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="C98" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D98" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="E98" t="s" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="C99" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D99" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="E99" t="s" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="B100" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="C100" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D100" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="E100" t="s" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="B101" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="C101" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D101" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="E101" t="s" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="B102" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="C102" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D102" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="E102" t="s" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="B103" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="C103" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D103" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="E103" t="s" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="C104" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D104" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="E104" t="s" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="B105" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="C105" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D105" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="E105" t="s" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="B106" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="C106" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D106" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="E106" t="s" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="B107" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="C107" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D107" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="E107" t="s" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="B108" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="C108" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D108" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="E108" t="s" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="B109" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="C109" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D109" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="E109" t="s" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="B110" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="C110" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D110" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="E110" t="s" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="B111" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="C111" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D111" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="E111" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="B112" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="C112" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D112" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="E112" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="B113" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="C113" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D113" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="E113" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="B114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="C114" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D114" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E114" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="B115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="C115" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D115" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="E115" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="B116" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="C116" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E116" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="B117" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="C117" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E117" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="B118" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="C118" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D118" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E118" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="B119" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="C119" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D119" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E119" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="B120" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="C120" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D120" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E120" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="B121" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="C121" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D121" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E121" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="B122" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="C122" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D122" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E122" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="B123" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="C123" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D123" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E123" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="B124" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="C124" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D124" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E124" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="B125" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="C125" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D125" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E125" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="B126" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="C126" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D126" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E126" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="B127" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="C127" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D127" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E127" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="B128" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="C128" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D128" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E128" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="B129" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="C129" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D129" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E129" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="B130" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="C130" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E130" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="B131" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="C131" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D131" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E131" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="B132" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="C132" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D132" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E132" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="B133" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="C133" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E133" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="B134" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="C134" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D134" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E134" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="B135" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="C135" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D135" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E135" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="B136" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="C136" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D136" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="E136" t="s" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="B137" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="C137" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D137" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="E137" t="s" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="B138" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="C138" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D138" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="E138" t="s" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="B139" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="C139" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D139" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="E139" t="s" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="B140" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="C140" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D140" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="E140" t="s" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="B141" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="C141" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D141" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="E141" t="s" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="B142" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="C142" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D142" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="E142" t="s" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="B143" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="C143" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D143" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="E143" t="s" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="B144" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="C144" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D144" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="E144" t="s" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="B145" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="C145" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D145" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="E145" t="s" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="B146" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="C146" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D146" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="E146" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="B147" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="C147" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D147" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="E147" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="B148" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="C148" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D148" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="E148" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="B60" t="s" s="2">
+      <c r="B149" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="C60" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D60" t="s" s="2">
+      <c r="C149" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D149" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E149" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="E60" t="s" s="2">
+      <c r="B150" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="C150" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D150" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E150" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="B151" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="C151" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D151" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E151" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="B152" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="C152" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D152" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="E152" t="s" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="B153" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="C153" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D153" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E153" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="B154" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="C154" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D154" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E154" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="B155" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="C155" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D155" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="E155" t="s" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="B156" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="C156" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D156" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E156" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="B157" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="C157" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D157" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="E157" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="B158" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="C158" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D158" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E158" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="B159" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="C159" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D159" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="E159" t="s" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="B160" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="C160" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D160" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="E160" t="s" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="B161" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="C161" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D161" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E161" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="B162" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="C162" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D162" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E162" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="B163" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="C163" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D163" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E163" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="B164" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="C164" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D164" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E164" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="B165" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="C165" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D165" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E165" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="B166" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="C166" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D166" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E166" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="B167" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="C167" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D167" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E167" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="B168" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="C168" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D168" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E168" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="B169" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="C169" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D169" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E169" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="B170" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="C170" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D170" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="E170" t="s" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="B171" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="C171" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D171" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="E171" t="s" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="B172" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="C172" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D172" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E172" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="B173" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="C173" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D173" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="E173" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="B174" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="C174" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D174" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E174" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="B175" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="C175" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D175" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E175" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="B176" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="C176" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D176" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E176" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="B177" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="C177" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D177" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E177" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="B178" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="C178" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D178" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E178" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="B179" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="C179" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D179" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E179" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="B180" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="C180" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D180" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E180" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="B181" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="C181" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D181" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E181" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="B182" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="C182" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D182" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E182" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="B183" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="C183" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D183" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E183" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="B184" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="C184" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D184" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E184" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="B185" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="C185" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D185" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E185" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="B186" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="C186" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D186" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E186" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="B187" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="C187" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D187" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E187" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="B188" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="C188" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D188" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E188" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="B189" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="C189" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D189" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E189" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="B190" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="C190" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D190" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E190" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="B191" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="C191" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D191" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E191" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="B192" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="C192" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D192" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E192" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="B193" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="C193" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D193" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E193" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="B194" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="C194" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D194" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="E194" t="s" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="B195" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="C195" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D195" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="E195" t="s" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="B196" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="C196" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D196" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="E196" t="s" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="B197" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="C197" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D197" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="E197" t="s" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="B198" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="C198" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D198" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="E198" t="s" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="B199" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="C199" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D199" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="E199" t="s" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="B200" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="C200" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D200" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="E200" t="s" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="B201" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="C201" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D201" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="E201" t="s" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="B202" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="C202" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D202" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="E202" t="s" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="B203" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="C203" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D203" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="E203" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="B204" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="C204" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D204" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="E204" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="B205" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="C205" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D205" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="E205" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B206" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="C206" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D206" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E206" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B207" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="C207" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D207" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="E207" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B208" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="C208" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D208" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E208" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B209" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="C209" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D209" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E209" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B210" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="C210" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D210" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E210" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B211" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="C211" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D211" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E211" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B212" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="C212" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D212" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E212" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B213" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="C213" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D213" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E213" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B214" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="C214" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D214" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E214" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B215" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="C215" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D215" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E215" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B216" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="C216" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D216" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E216" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B217" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="C217" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D217" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E217" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B218" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="C218" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D218" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E218" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B219" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="C219" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D219" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E219" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B220" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="C220" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D220" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E220" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B221" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="C221" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D221" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E221" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B222" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="C222" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D222" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E222" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B223" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="C223" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D223" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E223" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B224" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="C224" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D224" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E224" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B225" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="C225" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D225" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E225" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B226" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="C226" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D226" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E226" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B227" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="C227" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D227" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E227" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B228" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="C228" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D228" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E228" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B229" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="C229" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D229" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E229" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B230" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="C230" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D230" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E230" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B231" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="C231" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D231" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E231" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B232" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="C232" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D232" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E232" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B233" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="C233" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D233" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E233" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B234" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="C234" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D234" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E234" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B235" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="C235" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D235" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E235" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B236" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="C236" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D236" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E236" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B237" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="C237" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D237" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E237" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B238" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="C238" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D238" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="E238" t="s" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B239" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="C239" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D239" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="E239" t="s" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B240" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="C240" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D240" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="E240" t="s" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B241" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="C241" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D241" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="E241" t="s" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B242" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="C242" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D242" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="E242" t="s" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B243" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="C243" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D243" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="E243" t="s" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s" s="2">
         <v>94</v>
+      </c>
+      <c r="B244" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="C244" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D244" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="E244" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="B245" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="C245" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D245" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="E245" t="s" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="B246" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="C246" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D246" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="E246" t="s" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="B247" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="C247" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D247" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="E247" t="s" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="B248" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="C248" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D248" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="E248" t="s" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="B249" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="C249" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D249" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="E249" t="s" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="B250" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="C250" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D250" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="E250" t="s" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="B251" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="C251" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D251" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="E251" t="s" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="B252" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="C252" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D252" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="E252" t="s" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="B253" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="C253" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D253" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="E253" t="s" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="B254" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="C254" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D254" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="E254" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="B255" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="C255" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D255" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="E255" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="B256" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="C256" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D256" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="E256" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="B257" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="C257" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D257" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="E257" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="B258" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="C258" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D258" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E258" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="B259" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="C259" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D259" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="E259" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="B260" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="C260" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D260" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E260" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="B261" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="C261" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D261" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E261" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="B262" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="C262" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D262" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E262" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="B263" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="C263" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D263" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E263" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="B264" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="C264" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D264" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E264" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="B265" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="C265" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D265" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E265" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="B266" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="C266" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D266" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E266" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="B267" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="C267" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D267" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E267" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="B268" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="C268" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D268" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E268" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="B269" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="C269" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D269" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E269" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="B270" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="C270" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D270" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E270" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="B271" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="C271" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D271" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E271" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="B272" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="C272" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D272" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E272" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="B273" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="C273" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D273" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E273" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="B274" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="C274" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D274" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E274" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="B275" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="C275" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D275" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E275" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="B276" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="C276" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D276" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E276" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="B277" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="C277" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D277" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E277" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="B278" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="C278" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D278" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E278" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="B279" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="C279" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D279" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E279" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="B280" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="C280" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D280" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="E280" t="s" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="B281" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="C281" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D281" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="E281" t="s" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="B282" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="C282" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D282" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="E282" t="s" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="B283" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="C283" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D283" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="E283" t="s" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="B284" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="C284" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D284" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="E284" t="s" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="B285" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="C285" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D285" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E285" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="B286" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="C286" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D286" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E286" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="B287" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="C287" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D287" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E287" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="B288" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="C288" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D288" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E288" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="B289" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="C289" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D289" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E289" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="B290" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="C290" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D290" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="E290" t="s" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="B291" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="C291" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D291" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="E291" t="s" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="B292" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="C292" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D292" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="E292" t="s" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="B293" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="C293" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D293" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="E293" t="s" s="2">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
